--- a/xll_fre/test.xlsx
+++ b/xll_fre/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keith\source\repos\keithalewis\Fall2023\xll_fre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kal\source\repos\FRE6233\Fall2023\xll_fre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7988847-3DF5-4B5E-8AC6-8A430E06B0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A358C3-4245-4D10-AA71-5E96347221DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{DB6A20BA-E81C-4707-A25E-C90689CF553D}"/>
+    <workbookView xWindow="80" yWindow="3320" windowWidth="16580" windowHeight="9260" activeTab="1" xr2:uid="{DB6A20BA-E81C-4707-A25E-C90689CF553D}"/>
   </bookViews>
   <sheets>
     <sheet name="black" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="f">black!$C$2</definedName>
+    <definedName name="h" localSheetId="1">bsm!$D$6</definedName>
     <definedName name="h">black!$D$4</definedName>
     <definedName name="k" localSheetId="1">bsm!$C$5</definedName>
     <definedName name="k">black!$C$4</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>f</t>
   </si>
@@ -133,7 +134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -173,15 +174,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -207,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -218,7 +210,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,25 +526,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74940EE6-31BB-4810-B440-8CB6E240125B}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2">
         <f ca="1">100+10*RAND()</f>
-        <v>106.73279372666097</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+        <v>105.15623058124162</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -561,13 +554,13 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4">
         <f ca="1">100-10*RAND()</f>
-        <v>96.3742895669793</v>
+        <v>95.718020097852929</v>
       </c>
       <c r="D4">
         <v>1E-4</v>
@@ -576,38 +569,38 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" cm="1">
         <f t="array" aca="1" ref="C5" ca="1">_xll.BLACK.PUT.VALUE(f, s, k)</f>
-        <v>0.81126635823685866</v>
+        <v>0.93439983251507641</v>
       </c>
       <c r="D5" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">_xll.BLACK.PUT.VALUE(f + h, s, k)</f>
-        <v>0.81125214739662077</v>
+        <v>0.9343837338396952</v>
       </c>
       <c r="E5" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">_xll.BLACK.PUT.VALUE(f - h, s, k)</f>
-        <v>0.81128056928774406</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+        <v>0.93441593142277313</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" cm="1">
         <f t="array" aca="1" ref="C6" ca="1">_xll.BLACK.PUT.DELTA(f, s, k)</f>
-        <v>-0.142109455554494</v>
+        <v>-0.1609879153622735</v>
       </c>
       <c r="D6">
         <f ca="1">(D5-E5)/(2*h)</f>
-        <v>-0.14210945561643484</v>
+        <v>-0.16098791538965429</v>
       </c>
       <c r="E6">
         <f ca="1">(C6-D6)/C6</f>
-        <v>-4.3586713567534977E-10</v>
+        <v>-1.7007979770702462E-10</v>
       </c>
     </row>
   </sheetData>
@@ -620,16 +613,16 @@
   <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -637,7 +630,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -645,7 +638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -653,7 +646,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,17 +657,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6">
         <v>0.25</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,10 +679,16 @@
         <f t="array" ref="C7">_xll.BSM.PUT.VALUE(r_, S0, sigma, k, t)</f>
         <v>3.7334076873370154</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="5" cm="1">
+        <f t="array" ref="D7">_xll.BSM.PUT.VALUE(r_, S0 + h, sigma, k, t)</f>
+        <v>3.733403085617379</v>
+      </c>
+      <c r="E7" s="5" cm="1">
+        <f t="array" ref="E7">_xll.BSM.PUT.VALUE(r_, S0 - h, sigma, k, t)</f>
+        <v>3.7334122890606318</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,8 +696,14 @@
         <f t="array" ref="C8">_xll.BSM.PUT.DELTA(r_, S0, sigma, k, t)</f>
         <v>-0.46017216272297151</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="6">
+        <f>(D7-E7)/(2*h)</f>
+        <v>-0.46017216264182531</v>
+      </c>
+      <c r="E8" s="7">
+        <f>D8-C8</f>
+        <v>8.1146200869852692E-11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
